--- a/ICPADS'21/mem_contention/mem_contention_final.xlsx
+++ b/ICPADS'21/mem_contention/mem_contention_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\draw_tools\ICPADS'21\mem_contention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\draw_tools\ICPADS'21\mem_contention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC85BF75-07AF-4786-B05A-5CCF01859497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46710F71-95A1-4887-990D-C61E2BD4F3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="3" xr2:uid="{44E98518-03BC-45E8-A2D3-67906B426EE2}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{44E98518-03BC-45E8-A2D3-67906B426EE2}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="m4" sheetId="4" r:id="rId3"/>
     <sheet name="m4-稠密" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -151,10 +155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上半+下半</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内存管理开销(alloc)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,19 +187,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上半部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下半部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>归一化总和</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中断（归一化）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配+回收</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4172,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B553B0-ED47-450C-8147-4066A76B1EAA}">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4229,7 +4233,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>27</v>
@@ -4238,7 +4242,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
@@ -4247,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>13</v>
@@ -4262,16 +4266,16 @@
         <v>6</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>7</v>
@@ -4284,16 +4288,16 @@
         <v>8</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="AA1" s="6" t="s">
         <v>15</v>
@@ -4309,7 +4313,7 @@
         <v>19</v>
       </c>
       <c r="AF1" s="35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG1" s="5" t="s">
         <v>22</v>
@@ -5338,43 +5342,43 @@
         <v>38.861232109520842</v>
       </c>
       <c r="AD9" s="8">
-        <v>62.86</v>
+        <v>64.86</v>
       </c>
       <c r="AE9" s="18">
         <f t="shared" ref="AE9" si="26">AD9-AA9-S9</f>
-        <v>-1.8300000000000054</v>
+        <v>0.1699999999999946</v>
       </c>
       <c r="AF9" s="37">
         <f>U9+AC9+G9</f>
         <v>100</v>
       </c>
       <c r="AG9" s="20">
-        <v>6905.4</v>
+        <v>7864.5</v>
       </c>
       <c r="AH9" s="22">
-        <v>3365</v>
+        <v>4357.2</v>
       </c>
       <c r="AI9" s="11">
-        <v>21814742784</v>
+        <v>21824789193</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9219771008</v>
+        <v>9219324678</v>
       </c>
       <c r="AK9" s="26">
         <f t="shared" ref="AK9" si="27">AI9/AG9</f>
-        <v>3159084.5981405857</v>
+        <v>2775101.9382033185</v>
       </c>
       <c r="AL9" s="27">
         <f t="shared" ref="AL9" si="28">AJ9/AH9</f>
-        <v>2739902.2312035663</v>
+        <v>2115882.8325530156</v>
       </c>
       <c r="AM9" s="1">
         <f t="shared" ref="AM9" si="29">AI9/(B9*1024*1024/4)</f>
-        <v>20804.159912109375</v>
+        <v>20813.740914344788</v>
       </c>
       <c r="AN9" s="1">
         <f t="shared" ref="AN9" si="30">AJ9/(B9*1024*1024/4)</f>
-        <v>8792.6588134765625</v>
+        <v>8792.2331600189209</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
@@ -5433,6 +5437,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="31"/>
+      <c r="AC11" s="34"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="18"/>
       <c r="AF11" s="37"/>
